--- a/public/templates/student_template.xlsx
+++ b/public/templates/student_template.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="17720" windowHeight="9560"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
+    <t>lrn</t>
   </si>
   <si>
     <t>student_id</t>
@@ -52,117 +68,923 @@
     <t>grade_level</t>
   </si>
   <si>
-    <t>section_id</t>
-  </si>
-  <si>
-    <t>school_year_id</t>
-  </si>
-  <si>
-    <t>Lainel John</t>
-  </si>
-  <si>
-    <t>lainel@school.com</t>
-  </si>
-  <si>
-    <t>Lainel</t>
-  </si>
-  <si>
-    <t>DelaCruz</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>123 Main St</t>
-  </si>
-  <si>
-    <t>Mary Smith</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>jdoe@school.com</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>456 Park Ave</t>
-  </si>
-  <si>
-    <t>John Doe</t>
+    <t>section_name</t>
+  </si>
+  <si>
+    <t>school_year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="22">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -352,20 +1174,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="12.7857142857143"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,101 +1241,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2024001.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3">
-        <v>38732.0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9.123456789E9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9.187654321E9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.0</v>
-      </c>
+    <row r="2" customHeight="1" spans="1:16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2024002.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3">
-        <v>38796.0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2">
-        <v>9.23456789E9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2">
-        <v>9.87654321E9</v>
-      </c>
-      <c r="M3" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.0</v>
-      </c>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/templates/student_template.xlsx
+++ b/public/templates/student_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17720" windowHeight="9560"/>
+    <workbookView windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,49 +29,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>lrn</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>birth_date</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>contact_number</t>
-  </si>
-  <si>
-    <t>guardian_name</t>
-  </si>
-  <si>
-    <t>guardian_contact</t>
-  </si>
-  <si>
-    <t>grade_level</t>
-  </si>
-  <si>
-    <t>section_name</t>
-  </si>
-  <si>
-    <t>school_year</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>LRN</t>
+  </si>
+  <si>
+    <t>STUDENT ID</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME</t>
+  </si>
+  <si>
+    <t>BIRTH DATE</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>CONTACT NUMBER</t>
+  </si>
+  <si>
+    <t>GUARDIAN NAME</t>
+  </si>
+  <si>
+    <t>GUARDIAN CONTACT</t>
+  </si>
+  <si>
+    <t>GRADE LEVEL</t>
+  </si>
+  <si>
+    <t>SECTION NAME</t>
+  </si>
+  <si>
+    <t>SCHOOL YEAR</t>
   </si>
 </sst>
 </file>
@@ -80,15 +80,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -445,12 +453,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,159 +614,171 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1186,12 +1258,25 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="12.7857142857143"/>
+    <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="15.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="15.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="15.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="15.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="15.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="19.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="18.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="20.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="15" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:15">
@@ -1210,72 +1295,72 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
